--- a/cache write and read.xlsx
+++ b/cache write and read.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Limud\Third_year\Computer_structure\HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E3B290-B1B5-4810-87E6-92DCEFE0B84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBF1124-F2FB-41B0-A286-7D464020F707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t>no write allocate</t>
   </si>
@@ -57,39 +57,6 @@
     <t>block#, the key of the list</t>
   </si>
   <si>
-    <t>one list with priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">priority list 1 </t>
-  </si>
-  <si>
-    <t>priority list 2</t>
-  </si>
-  <si>
-    <t>priority list 3</t>
-  </si>
-  <si>
-    <t>priority list 4</t>
-  </si>
-  <si>
-    <t>priority list 5</t>
-  </si>
-  <si>
-    <t>priority list 6</t>
-  </si>
-  <si>
-    <t>priority list 7</t>
-  </si>
-  <si>
-    <t>priority list 8</t>
-  </si>
-  <si>
-    <t>priority list 9</t>
-  </si>
-  <si>
-    <t>hash table (vecotr&lt;block&gt;) with lists in each cell</t>
-  </si>
-  <si>
     <t>hash table (vector&lt;block&gt;)</t>
   </si>
   <si>
@@ -102,9 +69,6 @@
     <t>bring the block to all of the higher levels</t>
   </si>
   <si>
-    <t>remove the old block and update the values in the lower memory</t>
-  </si>
-  <si>
     <t>just write to the relevent level</t>
   </si>
   <si>
@@ -114,13 +78,110 @@
     <t>read</t>
   </si>
   <si>
-    <t>if the block is dirty:</t>
-  </si>
-  <si>
-    <t>if the block is not dirty:</t>
-  </si>
-  <si>
-    <t>if dirty - just remove the old block</t>
+    <t>make the block dirty in the current cache</t>
+  </si>
+  <si>
+    <t>who is dirty?</t>
+  </si>
+  <si>
+    <t>what to do with the block</t>
+  </si>
+  <si>
+    <t>what to do with the block we throw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the old block and update the values in the lower memory 
+</t>
+  </si>
+  <si>
+    <t>make the block dirty in the current cache, the higher level won't be dirty</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>L3</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>add block 1</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>update the block
+make it dirty</t>
+  </si>
+  <si>
+    <t>if neccesery remove current block by LRU policy</t>
+  </si>
+  <si>
+    <t>if old block was dirty - update only L2,
+else just throw him and move on to L2</t>
+  </si>
+  <si>
+    <t>if old block was dirty - update only L3,
+else just throw him and move on to L3</t>
+  </si>
+  <si>
+    <t>if neccesery update the removed block and make it dirty</t>
+  </si>
+  <si>
+    <t>one list with LRU priority</t>
+  </si>
+  <si>
+    <t>cahce_size/block_size</t>
+  </si>
+  <si>
+    <t>cahce_size/(block_size*k)</t>
+  </si>
+  <si>
+    <t>size of vector / num of set bits</t>
+  </si>
+  <si>
+    <t>size of list - cahce_size/block_size</t>
+  </si>
+  <si>
+    <t>list of vectors&lt;block&gt;</t>
+  </si>
+  <si>
+    <t>vector 1</t>
+  </si>
+  <si>
+    <t>vector 2</t>
+  </si>
+  <si>
+    <t>vector 3</t>
+  </si>
+  <si>
+    <t>vector 4</t>
+  </si>
+  <si>
+    <t>vector 5</t>
+  </si>
+  <si>
+    <t>vector 6</t>
+  </si>
+  <si>
+    <t>vector 7</t>
+  </si>
+  <si>
+    <t>vector 8</t>
+  </si>
+  <si>
+    <t>vector 9</t>
   </si>
 </sst>
 </file>
@@ -156,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -299,11 +360,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -317,59 +417,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,217 +787,576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.77734375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="33.77734375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" customWidth="1"/>
+    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.77734375" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" customWidth="1"/>
+    <col min="15" max="15" width="20.77734375" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="38.109375" customWidth="1"/>
+    <col min="19" max="19" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" customWidth="1"/>
+    <col min="21" max="21" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="22"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="H6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="H7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="25"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="25"/>
+    </row>
+    <row r="13" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="10">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="16"/>
+      <c r="H18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="25"/>
+    </row>
+    <row r="19" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9"/>
+      <c r="B19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="E19" s="16"/>
+      <c r="H19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="17"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="25"/>
+    </row>
+    <row r="20" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="H20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="26"/>
+    </row>
+    <row r="21" spans="1:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="B21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="31"/>
+      <c r="H21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F10" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="22"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="1">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
-        <v>4</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="1">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="1">
-        <v>6</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="1">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="1">
-        <v>8</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="1">
-        <v>9</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G11:G12"/>
+  <mergeCells count="5">
+    <mergeCell ref="H2:U2"/>
+    <mergeCell ref="H9:U9"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A18:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
